--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12435,11 +12435,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12579,11 +12579,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,26 +12612,26 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12660,26 +12660,26 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/02/2022</t>
+          <t>10/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15952,7 +15952,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12660,26 +12660,26 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12708,26 +12708,26 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12660,26 +12660,26 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12708,26 +12708,26 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/05/2017</t>
+          <t>18/05/2017</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Red Aeroportuaria Austral Sociedad Concesionaria S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F44" t="n">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12531,11 +12531,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12675,11 +12675,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12531,11 +12531,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12675,11 +12675,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>03/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12579,11 +12579,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12723,11 +12723,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>18/05/2017</t>
+          <t>17/05/2017</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12579,11 +12579,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12723,11 +12723,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12771,11 +12771,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12771,11 +12771,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>04/08/2022</t>
+          <t>11/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Acuícola Cordillera Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12771,11 +12771,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Red Aeroportuaria Austral Sociedad Concesionaria S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12675,11 +12675,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,7 +12775,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12819,11 +12819,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/09/2022</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12675,11 +12675,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,7 +12775,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12819,11 +12819,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12675,11 +12675,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,7 +12775,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12819,11 +12819,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12675,11 +12675,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,7 +12775,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12819,11 +12819,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -13155,7 +13155,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Constructora Salfa S.A</t>
+          <t>Constructora Salfa S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Constructora Salfa S.A</t>
+          <t>Constructora Salfa S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Constructora Salfa S.A</t>
+          <t>Constructora Salfa S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/10/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/10/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>19/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Flujo Ensenada Baja</t>
+          <t>Centro de Gestion de Residuos Solidos, Magallanes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/10/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157306113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156689181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centro de Gestion de Residuos Solidos, Magallanes</t>
+          <t>Línea de Flujo Ensenada Baja</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>19/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156689181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157306113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12819,11 +12819,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12963,11 +12963,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12819,11 +12819,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12963,11 +12963,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12819,11 +12819,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12963,11 +12963,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Landes S.A.</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Landes S.A.</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12819,11 +12819,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12963,11 +12963,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -14464,7 +14464,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12819,11 +12819,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12963,11 +12963,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14464,12 +14464,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14512,12 +14512,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12819,11 +12819,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12963,11 +12963,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14464,12 +14464,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14512,12 +14512,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -2372,7 +2372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>17/05/2017</t>
+          <t>18/05/2017</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -9315,7 +9315,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Embotelladoras Coca-Cola Polar S.A.</t>
+          <t>Embotelladora Andina S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Embotelladoras Coca Cola Polar S.A.</t>
+          <t>Embotelladora Andina S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12867,11 +12867,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14512,12 +14512,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14532,7 +14532,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14560,12 +14560,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18/05/2017</t>
+          <t>17/05/2017</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12867,11 +12867,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14512,12 +14512,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14532,7 +14532,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14560,12 +14560,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/05/2023</t>
+          <t>22/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12867,11 +12867,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14512,12 +14512,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14532,7 +14532,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14560,12 +14560,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12867,11 +12867,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14512,12 +14512,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14532,7 +14532,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14560,12 +14560,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12867,11 +12867,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14512,12 +14512,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14532,7 +14532,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14560,12 +14560,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -2372,7 +2372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LINEA DE FLUJO HEMMER</t>
+          <t>Varadero Logística y Servicios Ltda.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Logística y Servicios Ltda.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159460282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159439586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13/06/2023</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159439586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159440897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Varadero Logística y Servicios Ltda.</t>
+          <t>LINEA DE FLUJO HEMMER</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Logística y Servicios Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159440897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159460282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159439586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159440897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>19/06/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159440897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159439586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>19/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159440897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159439586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Varadero Logística y Servicios Ltda.</t>
+          <t>LINEA DE FLUJO HEMMER</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Logística y Servicios Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159439586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159460282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LINEA DE FLUJO HEMMER</t>
+          <t>Varadero Logística y Servicios Ltda.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Logística y Servicios Ltda.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>12/06/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159460282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159440897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -1652,7 +1652,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,26 +13188,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,26 +13236,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,26 +13188,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,26 +13236,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,26 +13188,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,26 +13236,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,26 +13188,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,26 +13236,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13059,11 +13059,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13203,11 +13203,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,26 +13236,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13284,26 +13284,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13059,11 +13059,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13203,11 +13203,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,26 +13236,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13284,26 +13284,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13059,11 +13059,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13203,11 +13203,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,26 +13236,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13284,26 +13284,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13059,11 +13059,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13203,11 +13203,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,26 +13236,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13284,26 +13284,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13059,11 +13059,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13203,11 +13203,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,26 +13236,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13284,26 +13284,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO ARACENA 1, AL NORTE DE CTA. HAWKINS, ISLA CAPITAN ARACENA, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO ARACENA 6, CANAL SIN NOMBRE, PENINSULA DE GREENOUGH ISLA CAPITAN ARACENA, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13059,11 +13059,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13203,11 +13203,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,26 +13236,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13284,26 +13284,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14704,12 +14704,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13107,11 +13107,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13251,11 +13251,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13284,26 +13284,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13332,26 +13332,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14800,12 +14800,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,7 +13255,7 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13299,11 +13299,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13332,26 +13332,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13380,26 +13380,26 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14800,12 +14800,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14848,12 +14848,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,7 +13255,7 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13299,11 +13299,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13332,26 +13332,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13380,26 +13380,26 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14800,12 +14800,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14848,12 +14848,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Punta Arenas</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121057 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121071 (e-seia)</t>
+          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,7 +13255,7 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmónidos, Estero Staples, Isla Capitán Aracena, Estrecho de Magallanes, PERT 99121113 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de Punta Arenas Condiciones de Ocupación Edificación y Subdivisión Predial F2</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13299,11 +13299,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Punta Arenas</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=76793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13332,26 +13332,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
+          <t>Parque Histórico Rey Don Felipe</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Gobernación Provincial de Magallanes</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>6500</v>
+        <v>780</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13380,26 +13380,26 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Parque Histórico Rey Don Felipe</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Saint Pierre (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Magallanes</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>780</v>
+        <v>6500</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=74343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
+          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14800,12 +14800,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Estero Staples (99121114)-Isla Capitán Aracena-Grupo C</t>
+          <t>Centro de Engorda Salmonídeos-Seno Lyell Sur (99121115)-Seno Lyell Centro (99121116)-Seno Lyell-Bahía Kempe (99121118)-Isla Capitán Aracena-Grupo B</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14848,12 +14848,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">

--- a/data/Punta Arenas.xlsx
+++ b/data/Punta Arenas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>22/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
